--- a/public/files/template/inventory/kibc.xlsx
+++ b/public/files/template/inventory/kibc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\epuskesmas\public\files\template\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\newepuskesmas\public\files\template\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>KARTU INVENTARIS BARANG (KIB) C</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>[b.kode]</t>
+  </si>
+  <si>
+    <t>Tanggal Export</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: </t>
+  </si>
+  <si>
+    <t>[b.tanggal_export]</t>
   </si>
 </sst>
 </file>
@@ -372,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -463,6 +472,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,10 +1090,16 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
+      <c r="B11" s="31" t="s">
+        <v>50</v>
+      </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>52</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
@@ -1302,5 +1323,6 @@
     <mergeCell ref="B13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>